--- a/0716_distance_batch_1/output_batch_size_100_query_points_10_0716_distance_batch_1.xlsx
+++ b/0716_distance_batch_1/output_batch_size_100_query_points_10_0716_distance_batch_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zpwang\Desktop\0_master\Emnets\可信泛在互联\timeChain\IotDataAccessExp\0716_distance_batch_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FB2EC-21F2-4E91-A28D-7E53173DC677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516219F-4CF9-403D-969B-F0988BA7BBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="6444" windowWidth="30984" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,140 +109,144 @@
     <t>(11.145058844215775, 2601, 2619, 0.5017241379310344)</t>
   </si>
   <si>
+    <t>(8.640413100891035, 2259, 2173, 0.490297833935018)</t>
+  </si>
+  <si>
+    <t>(8.792243109222378, 2007, 2044, 0.5045667736361392)</t>
+  </si>
+  <si>
+    <t>(7.928026130252215, 1986, 2008, 0.5027541311967952)</t>
+  </si>
+  <si>
+    <t>(6.464697303884098, 1710, 1687, 0.4966146599941125)</t>
+  </si>
+  <si>
+    <t>(6.925738069260392, 1620, 1641, 0.5032198712051518)</t>
+  </si>
+  <si>
+    <t>(2, 2)</t>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+  </si>
+  <si>
+    <t>(82.95632150542926, 993, 3771, 0.7915617128463476)</t>
+  </si>
+  <si>
+    <t>(58.40907963923032, 689, 2596, 0.7902587519025875)</t>
+  </si>
+  <si>
+    <t>(52.494110344775066, 595, 2356, 0.7983734327346662)</t>
+  </si>
+  <si>
+    <t>(50.42774955052756, 556, 2248, 0.8017118402282454)</t>
+  </si>
+  <si>
+    <t>(51.268086502861166, 574, 2289, 0.7995110024449877)</t>
+  </si>
+  <si>
+    <t>(47.8468613837049, 539, 2108, 0.7963732527389498)</t>
+  </si>
+  <si>
+    <t>(44.239095891151734, 507, 2010, 0.798569725864124)</t>
+  </si>
+  <si>
+    <t>(7, 7)</t>
+  </si>
+  <si>
+    <t>(7, 3)</t>
+  </si>
+  <si>
+    <t>(5, 2)</t>
+  </si>
+  <si>
+    <t>(35.24648149287222, 6451, 9386, 0.5926627517837975)</t>
+  </si>
+  <si>
+    <t>(34.743118413488325, 5989, 8738, 0.5933319752834929)</t>
+  </si>
+  <si>
+    <t>(34.12124513140402, 5291, 7755, 0.5944350758853288)</t>
+  </si>
+  <si>
+    <t>(33.742319083775556, 4577, 6905, 0.6013760668873018)</t>
+  </si>
+  <si>
+    <t>(32.393352732777984, 4296, 6066, 0.5854082223508975)</t>
+  </si>
+  <si>
+    <t>(30.248286889892583, 3195, 4637, 0.5920582226762002)</t>
+  </si>
+  <si>
+    <t>(28.277221371195772, 2903, 3978, 0.5781136462723442)</t>
+  </si>
+  <si>
+    <t>(35.14000308427418, 6348, 9439, 0.5978970038639387)</t>
+  </si>
+  <si>
+    <t>(28.927233009401164, 2906, 4274, 0.5952646239554318)</t>
+  </si>
+  <si>
+    <t>(26.726837620637625, 2392, 3348, 0.5832752613240418)</t>
+  </si>
+  <si>
+    <t>(25.61936783944446, 1953, 2874, 0.5954008701056557)</t>
+  </si>
+  <si>
+    <t>(24.90635808619505, 1966, 2878, 0.5941370767960363)</t>
+  </si>
+  <si>
+    <t>(22.392704085604706, 1586, 2341, 0.5961293608352431)</t>
+  </si>
+  <si>
+    <t>(21.495053195227033, 1518, 2152, 0.5863760217983651)</t>
+  </si>
+  <si>
+    <t>(83.70862023264542, 1004, 3825, 0.7920894595154276)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(82.07746113869553, 945, 3710, 0.7969924812030075)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(78.51747265768893, 943, 3494, 0.7874690105927429)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(77.44630577147063, 907, 3401, 0.7894614670380687)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(72.18895494744372, 826, 3216, 0.7956457199406235)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(72.41283681940678, 826, 3156, 0.7925665494726268)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(61.348009952137716, 701, 2736, 0.7960430608088449)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(59.085457898483234, 619, 2562, 0.8054071046840616)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(8.728759339783675, 2194, 2159, 0.4959797840569722)</t>
-  </si>
-  <si>
-    <t>(8.640413100891035, 2259, 2173, 0.490297833935018)</t>
-  </si>
-  <si>
-    <t>(8.792243109222378, 2007, 2044, 0.5045667736361392)</t>
-  </si>
-  <si>
-    <t>(7.928026130252215, 1986, 2008, 0.5027541311967952)</t>
-  </si>
-  <si>
-    <t>(6.464697303884098, 1710, 1687, 0.4966146599941125)</t>
-  </si>
-  <si>
-    <t>(6.925738069260392, 1620, 1641, 0.5032198712051518)</t>
-  </si>
-  <si>
-    <t>(2, 2)</t>
-  </si>
-  <si>
-    <t>(1, 1)</t>
-  </si>
-  <si>
-    <t>(82.95632150542926, 993, 3771, 0.7915617128463476)</t>
-  </si>
-  <si>
-    <t>(58.40907963923032, 689, 2596, 0.7902587519025875)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(53.03336451794025, 620, 2363, 0.7921555481059336)</t>
-  </si>
-  <si>
-    <t>(52.494110344775066, 595, 2356, 0.7983734327346662)</t>
-  </si>
-  <si>
-    <t>(50.42774955052756, 556, 2248, 0.8017118402282454)</t>
-  </si>
-  <si>
-    <t>(51.268086502861166, 574, 2289, 0.7995110024449877)</t>
-  </si>
-  <si>
-    <t>(47.8468613837049, 539, 2108, 0.7963732527389498)</t>
-  </si>
-  <si>
-    <t>(44.239095891151734, 507, 2010, 0.798569725864124)</t>
-  </si>
-  <si>
-    <t>(7, 7)</t>
-  </si>
-  <si>
-    <t>(7, 3)</t>
-  </si>
-  <si>
-    <t>(5, 2)</t>
-  </si>
-  <si>
-    <t>(35.24648149287222, 6451, 9386, 0.5926627517837975)</t>
-  </si>
-  <si>
-    <t>(34.743118413488325, 5989, 8738, 0.5933319752834929)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(27.07356496594681, 2170, 3296, 0.6030003658982803)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(34.0821213629274, 5540, 7860, 0.5865671641791045)</t>
-  </si>
-  <si>
-    <t>(34.12124513140402, 5291, 7755, 0.5944350758853288)</t>
-  </si>
-  <si>
-    <t>(33.742319083775556, 4577, 6905, 0.6013760668873018)</t>
-  </si>
-  <si>
-    <t>(32.393352732777984, 4296, 6066, 0.5854082223508975)</t>
-  </si>
-  <si>
-    <t>(30.248286889892583, 3195, 4637, 0.5920582226762002)</t>
-  </si>
-  <si>
-    <t>(28.277221371195772, 2903, 3978, 0.5781136462723442)</t>
-  </si>
-  <si>
-    <t>(35.14000308427418, 6348, 9439, 0.5978970038639387)</t>
-  </si>
-  <si>
-    <t>(28.927233009401164, 2906, 4274, 0.5952646239554318)</t>
-  </si>
-  <si>
-    <t>(27.07356496594681, 2170, 3296, 0.6030003658982803)</t>
-  </si>
-  <si>
-    <t>(26.726837620637625, 2392, 3348, 0.5832752613240418)</t>
-  </si>
-  <si>
-    <t>(25.61936783944446, 1953, 2874, 0.5954008701056557)</t>
-  </si>
-  <si>
-    <t>(24.90635808619505, 1966, 2878, 0.5941370767960363)</t>
-  </si>
-  <si>
-    <t>(22.392704085604706, 1586, 2341, 0.5961293608352431)</t>
-  </si>
-  <si>
-    <t>(21.495053195227033, 1518, 2152, 0.5863760217983651)</t>
-  </si>
-  <si>
-    <t>(83.70862023264542, 1004, 3825, 0.7920894595154276)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(82.07746113869553, 945, 3710, 0.7969924812030075)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(78.51747265768893, 943, 3494, 0.7874690105927429)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(77.44630577147063, 907, 3401, 0.7894614670380687)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(72.18895494744372, 826, 3216, 0.7956457199406235)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(72.41283681940678, 826, 3156, 0.7925665494726268)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(61.348009952137716, 701, 2736, 0.7960430608088449)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(59.085457898483234, 619, 2562, 0.8054071046840616)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -660,7 +664,7 @@
         <v>17.169569005918259</v>
       </c>
       <c r="C2">
-        <v>17.30688612664764</v>
+        <v>17.306886126647601</v>
       </c>
       <c r="D2">
         <v>17.483484804929802</v>
@@ -764,27 +768,27 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -799,73 +803,73 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -874,10 +878,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -888,54 +892,54 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
